--- a/data/trans_camb/P54_A_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_3_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,67</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,02; -6,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,2; -4,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,86; -13,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,25; -7,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,65; -14,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,36; -10,45</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,31%</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -69,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,25; -14,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -74,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,3; -47,52</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,26</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,9; -8,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,83; -8,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,48; -18,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,86; -20,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,43; -14,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,26; -15,89</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -69,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -81,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,52; -85,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,13</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,1; -2,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,53; -2,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,43; -8,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,88; -8,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,39; -7,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,24; -6,72</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,92%</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -75,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,14 +1052,14 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -79,33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1212,14 +1212,178 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-12,36</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-12,38</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-20,01</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-19,89</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-16,42</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-16,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-19,78; -8,15</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-19,82; -8,38</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-24,77; -16,02</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-24,53; -15,67</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-20,41; -13,52</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-20,37; -13,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-97,68%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-97,87%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-95,45%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-94,85%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-96,21%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-95,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -87,03</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -84,99</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-98,66; -86,6</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-98,9; -86,47</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-98,65; -90,61</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-98,65; -90,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P54_A_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_3_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,299 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-27,6</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-25,59</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-24,77</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-20,02</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-26,12</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-22,67</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-27.59647617516393</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-25.78775858590467</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-24.64490201263676</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-20.31034625888863</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-26.0689604014803</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-22.83379663349039</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-63,02; -6,99</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-62,2; -4,48</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-39,86; -13,02</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-37,25; -7,06</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-46,65; -14,88</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-44,36; -10,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-63.01636060363465</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-62.27962276339797</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-41.16242466971073</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-37.57021179952002</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-45.788296660072</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-44.38554303525956</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-92,72%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-94,37%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-76,28%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-97,12%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-84,31%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-6.988835828328193</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-4.566069852478268</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-12.48948120931785</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-7.325025049396156</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-14.29546487760861</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-10.58372261289217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -69,12</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-95,25; -14,9</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -74,19</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-97,3; -47,52</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.934458385999041</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.9390010717532005</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.7738491674666055</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.9693953583736136</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.8490931793849252</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-13,32</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-13,93</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-24,85</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-26,54</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-19,09</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-20,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.9582465108512226</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.9736314971029615</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-19,9; -8,07</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-20,83; -8,86</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-32,48; -18,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-33,86; -20,36</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-24,43; -14,19</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-25,26; -15,89</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="n">
+        <v>-0.572479183620321</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.1694737371232455</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.7951029423373798</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.4861598293266434</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-95,61%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-93,65%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-94,25%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-13.37521643378456</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-13.93361776377064</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-24.85318933825405</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-26.53782109839368</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-19.11244627133973</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-20.25576201060856</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -69,63</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -81,02</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-98,52; -85,27</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-20.08092387361768</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-20.8275481799288</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-32.67104960744499</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-33.85884587843228</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-24.71345270758352</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-25.26408744051215</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-6,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-6,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-13,86</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-13,27</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-10,45</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-10,13</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-7.95855850291618</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-8.86465260567134</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-18.3837507600977</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-20.35943977290742</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-14.47323941897844</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-15.89376706515281</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-11,1; -2,41</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,53; -2,47</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-19,43; -8,95</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-18,88; -8,27</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-14,39; -7,16</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-14,24; -6,72</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.9599241676172572</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.936519590139162</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.9435560242724994</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-95,79%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-96,92%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="6" t="inlineStr"/>
+      <c r="G14" s="6" t="n">
+        <v>-0.9881035584952969</v>
+      </c>
+      <c r="H14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -75,34</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -79,33</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>-0.6954334510411504</v>
+      </c>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="n">
+        <v>-0.7990247835120258</v>
+      </c>
+      <c r="F15" s="6" t="inlineStr"/>
+      <c r="G15" s="6" t="n">
+        <v>-0.8512013298672104</v>
+      </c>
+      <c r="H15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +908,316 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-6.000276349964326</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-6.000276349964326</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-13.85786087919421</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-13.18339643410537</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-10.44885239443672</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-10.07777516462192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-11.52591998595723</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-11.52591998595723</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-19.42807609260652</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-18.79913026218038</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-14.61751628673254</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-14.11857432989228</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-2.471027926380703</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-2.471027926380703</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-8.946574811964442</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-8.063118848809697</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>-7.13859473640373</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-6.674518271972235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.9513298299810862</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.9644863171756187</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-12,36</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-12,38</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-20,01</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-19,89</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-16,42</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-16,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-19,78; -8,15</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-19,82; -8,38</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-24,77; -16,02</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-24,53; -15,67</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-20,41; -13,52</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-20,37; -13,54</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="n">
+        <v>-0.714276220103331</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="n">
+        <v>-0.7641841639224166</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-97,68%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-97,87%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-95,45%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-94,85%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-96,21%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-95,94%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-12.38543298151469</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-12.41910649060326</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-19.98727192632731</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-19.87621128218252</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-16.41910758461089</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-16.37875100538772</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -87,03</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -84,99</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-98,66; -86,6</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-98,9; -86,47</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-98,65; -90,61</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-98,65; -90,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-19.82889394869655</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-19.84718035117733</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-24.18810097061812</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-24.50716941268581</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-20.72653515874267</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-20.39820607428919</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-8.171245065063294</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-8.422786121070033</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-15.95018988867899</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-15.64716110332418</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-13.52031100707211</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-13.55655041916539</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.9790797633399199</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.9817416849181536</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.953210663984841</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>-0.9479140837042479</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>-0.9622881788293269</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.9599229675092646</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.9878843690700982</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-0.9887951862449502</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.9857948668168085</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-0.986415072224852</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.8482057155564166</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.8709770848468732</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.8686654288843725</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>-0.8649084379936075</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>-0.9048821152782868</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>-0.8989646255143334</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
